--- a/data/trans_dic/P19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,32</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,73</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,32</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,59</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>0; 0,53</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,21</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,48</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,28; 1,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,4; 2,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,16; 1,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,26; 2,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,0; 0,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,15; 1,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,35; 2,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,23; 1,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,41; 1,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,21; 1,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,29; 1,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,23; 1,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,09; 0,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,3; 1,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,09; 0,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,3; 1,34</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,18; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,18; 2,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,1; 0,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,11; 1,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
+          <t>0,28; 1,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,09; 0,56</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1221,57 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1289,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,15; 1,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1314,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,03; 0,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,13; 1,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,22; 2,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,12; 1,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,21; 2,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,11; 0,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,23; 1,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,1; 0,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,1; 0,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,2; 0,73</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,19; 0,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,04; 0,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,27; 0,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,33; 0,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,08; 0,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,26; 0,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,29; 0,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,42; 0,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,31; 0,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,69</t>
+          <t>0,0; 5,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,92</t>
+          <t>0,37; 2,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,18</t>
+          <t>0,0; 0,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,91</t>
+          <t>0,19; 1,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,53</t>
+          <t>0,23; 1,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,34</t>
+          <t>0,29; 1,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,87</t>
+          <t>0,09; 0,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,56</t>
+          <t>0,07; 0,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>0,15; 1,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,66</t>
+          <t>0,03; 0,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,78</t>
+          <t>0,1; 0,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,28%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,09</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,13</t>
+          <t>0,13; 1,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,05</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,72</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,45</t>
+          <t>0,2; 1,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,88</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,99</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,73</t>
+          <t>0,09; 0,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1516,42 +1516,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,35%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 1,46</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 3,88</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,09</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,82</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,4</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,91</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,19</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,37; 1,02</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,04; 0,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 0,92</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 0,88</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,33; 0,87</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,37; 0,93</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,08; 0,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 0,69</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 0,63</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,29; 0,68</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0,42; 0,86</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,08; 0,34</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 0,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,23</t>
+          <t>0,0; 5,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,59</t>
+          <t>0,29; 2,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,67</t>
+          <t>0,3; 1,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,92</t>
+          <t>0,26; 3,17</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,3</t>
+          <t>0,16; 1,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,18</t>
+          <t>0,21; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,19</t>
+          <t>0,0; 0,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,82</t>
+          <t>0,15; 1,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,12</t>
+          <t>0,34; 2,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,19</t>
+          <t>0,22; 1,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,51</t>
+          <t>0,41; 1,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,91</t>
+          <t>0,19; 1,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,77</t>
+          <t>0,29; 1,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,49</t>
+          <t>0,29; 1,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,96</t>
+          <t>0,09; 0,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,16</t>
+          <t>0,3; 1,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,86</t>
+          <t>0,09; 0,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,28</t>
+          <t>0,32; 1,31</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,61</t>
+          <t>0,18; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,03</t>
+          <t>0,18; 1,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,86</t>
+          <t>0,09; 0,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,03</t>
+          <t>0,11; 1,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,74</t>
+          <t>0,28; 1,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,47</t>
+          <t>0,07; 0,51</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1290,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,7 +1305,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1315,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,61</t>
+          <t>0,03; 0,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,11</t>
+          <t>0,13; 1,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,77</t>
+          <t>0,11; 0,9</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1425,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,33</t>
+          <t>0,13; 1,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,27 +1460,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,64</t>
+          <t>0,15; 1,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,73</t>
+          <t>0,11; 0,78</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1570,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,88</t>
+          <t>0,08; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,12 +1580,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,4</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,32 +1595,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,91</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,62</t>
+          <t>0,17; 1,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,84</t>
+          <t>0,09; 0,86</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,68</t>
+          <t>0,15; 0,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,02</t>
+          <t>0,34; 0,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,4</t>
+          <t>0,03; 0,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,88</t>
+          <t>0,24; 0,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,87</t>
+          <t>0,28; 0,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,93</t>
+          <t>0,36; 0,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,52</t>
+          <t>0,07; 0,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,63</t>
+          <t>0,22; 0,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,68</t>
+          <t>0,29; 0,66</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,86</t>
+          <t>0,43; 0,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,34</t>
+          <t>0,08; 0,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,62</t>
+          <t>0,28; 0,61</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por selladores, aplicación de fluor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4157</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6037</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7619</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4758</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6471</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19783</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4925</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1081; 9863</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11114</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6809</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2284; 12389</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1783; 21773</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2865</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4775</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3531</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4948</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6396</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9723</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>931; 8001</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1264; 13588</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1027</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>808; 10887</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1912; 11632</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1866</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5782</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2492; 13894</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4705; 18432</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1928</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5792</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5748</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2592</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7720</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3614</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6958</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5355</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6434</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5713</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1008; 9380</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7573</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1922; 11580</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8727</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1559; 7547</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1025; 9339</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3792; 14564</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1028; 10217</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3371; 13861</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2371</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8422</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3329</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5720</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1003; 14114</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2120</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5721</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6705</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1041; 11117</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>646; 5627</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>924; 9289</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3119; 18399</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1046; 8006</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2188</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2771</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3156</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1887</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5276</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7594</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>823; 7942</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2119</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4858</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>160; 3680</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5946</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5242</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>969; 9493</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1196; 9717</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2808</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3290</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5857</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6015</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4601</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>473; 4434</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6929</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2036</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5012</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>699; 7569</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5020</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4544</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1049; 7497</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2365</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2365</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1856</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>145; 7445</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4815</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8170</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2118</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 9182</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3221</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8214</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>819; 7969</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8654</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>597; 5850</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8367</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>18832</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13529</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>23177</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>36875</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>28514</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3726; 15823</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9985; 28863</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>915; 9708</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>7900; 28637</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>7794; 24415</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>11232; 30227</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2128; 12298</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>7857; 21978</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>14889; 34083</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>25791; 51555</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>4368; 19251</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>19151; 42190</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>